--- a/word-library.xlsx
+++ b/word-library.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Triston\Documents\quantum-communications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BA1DF3-DFB0-49C0-A6D4-450828D20D92}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2DEC0B-CC92-4CDE-BC69-1741F33E4B25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" firstSheet="1" activeTab="2" xr2:uid="{6D70BEF2-05E0-4EA0-8E25-F204E86EE6DE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{6D70BEF2-05E0-4EA0-8E25-F204E86EE6DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="word-class-bank" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="word-class-bank" sheetId="1" r:id="rId1"/>
     <sheet name="synonym-bank" sheetId="4" r:id="rId2"/>
     <sheet name="word-bank" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Conjunction</t>
   </si>
@@ -56,27 +56,6 @@
     <t>Fact</t>
   </si>
   <si>
-    <t>Past Tense</t>
-  </si>
-  <si>
-    <t>Future Tense</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Analog</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
     <t>FOR</t>
   </si>
   <si>
@@ -111,6 +90,30 @@
   </si>
   <si>
     <t>OUTSIDE</t>
+  </si>
+  <si>
+    <t>Past-Tense-Fiction</t>
+  </si>
+  <si>
+    <t>Future-Tense-Fiction</t>
+  </si>
+  <si>
+    <t>No-Contract</t>
+  </si>
+  <si>
+    <t>: Synonyms</t>
+  </si>
+  <si>
+    <t>: Claim</t>
+  </si>
+  <si>
+    <t>: Analog</t>
+  </si>
+  <si>
+    <t>: Class</t>
+  </si>
+  <si>
+    <t>: Word</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB261D7E-E62F-47F5-90AE-EE834D432BE5}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,12 +527,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -558,7 +566,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -572,151 +580,151 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -725,7 +733,7 @@
   </sortState>
   <dataValidations count="3">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{EEFE0191-805C-443E-8C6F-C92D0E61AF89}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C3:C1048576" xr:uid="{B83BDD84-B312-4CBE-A3C1-542714CB782A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{B83BDD84-B312-4CBE-A3C1-542714CB782A}">
       <formula1>$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{1C083327-FC43-479F-9919-A96E8CA6C3C0}">
